--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">college_id</t>
   </si>
   <si>
+    <t xml:space="preserve">semester</t>
+  </si>
+  <si>
     <t xml:space="preserve">subject_id</t>
   </si>
   <si>
@@ -37,46 +40,86 @@
     <t xml:space="preserve">percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">Adithya</t>
+    <t xml:space="preserve">Alex Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STU345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHY405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STU234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUT300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Smith</t>
   </si>
   <si>
     <t xml:space="preserve">STU123</t>
   </si>
   <si>
+    <t xml:space="preserve">ECO420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STU456</t>
+  </si>
+  <si>
     <t xml:space="preserve">CST307</t>
   </si>
   <si>
-    <t xml:space="preserve">Arun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STU124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STU125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STU126</t>
+    <t xml:space="preserve">Noah Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STU789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CST304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liam Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STU567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ava Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STU678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE410</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -99,6 +142,7 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,13 +187,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -235,9 +299,7 @@
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
@@ -247,21 +309,21 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
           <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
@@ -306,7 +368,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -318,13 +380,11 @@
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -344,103 +404,544 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="13.58"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C18" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="E19" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>81</v>
+      <c r="C22" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -92,10 +92,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -163,29 +165,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -379,29 +397,30 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="14.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="25.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="12.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -410,22 +429,22 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -445,7 +464,7 @@
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="7" t="n">
         <v>38316</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -454,22 +473,22 @@
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="8" t="n">
         <v>5577</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>202226</v>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="G2" s="8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H2" s="8" t="n">
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="8" t="n">
         <v>8590803129</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -484,200 +503,197 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="jerinjvarghese32@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
